--- a/scripts/scripts/realtime_output/multi_company_sep19/portfolio_summary.xlsx
+++ b/scripts/scripts/realtime_output/multi_company_sep19/portfolio_summary.xlsx
@@ -498,28 +498,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$103.83</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$3.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>3.83%</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>27.27%</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -527,7 +527,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-08-05 12:03:27</t>
+          <t>2025-08-08 08:36:13</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -569,11 +569,11 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-08-05 12:03:27</t>
+          <t>2025-08-08 08:36:13</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-08-05 12:03:27</t>
+          <t>2025-08-08 08:36:13</t>
         </is>
       </c>
     </row>
@@ -661,11 +661,11 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-08-05 12:03:27</t>
+          <t>2025-08-08 08:36:13</t>
         </is>
       </c>
     </row>
@@ -682,28 +682,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$100.43</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.43%</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>12.50%</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -711,7 +711,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-08-05 12:03:27</t>
+          <t>2025-08-08 08:36:13</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-08-05 12:03:27</t>
+          <t>2025-08-08 08:36:13</t>
         </is>
       </c>
     </row>
@@ -774,36 +774,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$110.91</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$10.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>10.91%</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-08-05 12:03:27</t>
+          <t>2025-08-08 08:36:13</t>
         </is>
       </c>
     </row>
@@ -820,36 +820,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$140.89</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$40.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>40.89%</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-08-05 12:03:27</t>
+          <t>2025-08-08 08:36:13</t>
         </is>
       </c>
     </row>
@@ -866,36 +866,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$100.53</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$0.53</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-08-05 12:03:27</t>
+          <t>2025-08-08 08:36:13</t>
         </is>
       </c>
     </row>
@@ -912,36 +912,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$100.00</t>
+          <t>$101.27</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$1.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.27%</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-08-05 12:03:27</t>
+          <t>2025-08-08 08:36:13</t>
         </is>
       </c>
     </row>
